--- a/기획서/모래시계 시스템.xlsx
+++ b/기획서/모래시계 시스템.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤성재\Desktop\Kronos\Kronos2\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seongjae Yoon\Desktop\MonsterHunterSoldier\Kronos2\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF256260-72FF-4397-8DB1-2F569FD3A6A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C12213-B7D0-4181-9CE3-F565A0A140C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22995" yWindow="0" windowWidth="22995" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="성장 목록" sheetId="1" r:id="rId1"/>
+    <sheet name="개요" sheetId="2" r:id="rId1"/>
+    <sheet name="성장 목록" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="183">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -674,6 +675,58 @@
   </si>
   <si>
     <t>자석3</t>
+  </si>
+  <si>
+    <t>기초적인 능력 강화. 최대레벨 제한이 없으나, 투자 대비 효율이 제일 나쁘다. [시간 수거]를 제외하면 1~3티어 능력들을 다 찍고 남으면 찍는 능력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티어(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터를 잡으면 [시간의 가루]를 얻는다. 가루를 100개 모으면 자동으로 [모래시계] 1개가 완성되며, 완성된 모래시계는 사망해도 초기화되지 않는다. 시간의 가루는 사망하면 초기화된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래시계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성장에 필요한 능력들을 구매하는 데 필요한 재화.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 획득하는 능력 컨셉에 따라 계열이 나뉜다. 각 계열에는 1~3티어 능력들을 얻을 수 있으며, 높은 티어일수록 투자대비 효율이 좋다. 하나의 계열 안에서 낮은 티어의 능력을 일정 레벨 달성해야 상위 티어의 능력을 구매할 수 있다.
+ 게임이 반복되면서 획득하는 모래시계의 수에는 제한이 없으므로, 이론적으로 게임을 아주 많이하면 모든 계열의 능력을 전부 획득할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티어(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티어(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티어(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1티어 능력을 합쳐서 10레벨 이상 달성하면 2티어 능력을 찍을 수 있다.  2티어 능력은 특수한 패시브 기능을 얻는 것이며, 각각 1회만 구매할 수 있다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[시간 수거] 10레벨을 찍으면 각 계열의 1티어 능력들을 구매할 수 있다.  1티어 능력은 해당 계열에 관련한 스탯을 얻을 수 있다. 각각 최대 20레벨, 총 40레벨까지 구매할 수 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1+2티어를 합쳐 총 30레벨을 구매하면 3티어 능력을 구매할 수 있다. 3티어 능력은 각 계열마다 2가지가 있으며, 둘 중 하나만 선택하여 구매할 수 있다. 하나의 3티어 능력은 최대 3레벨까지 획득할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -805,7 +858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -820,15 +873,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -846,6 +890,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -855,17 +920,14 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,10 +944,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1150,19 +1208,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB4FEB7-8CEB-42BB-9BB3-93B4731790BB}">
+  <dimension ref="A2:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="80.125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="21"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.5" style="10" customWidth="1"/>
+    <col min="6" max="6" width="38.5" style="7" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="9" style="1"/>
     <col min="11" max="11" width="11.625" style="1" bestFit="1" customWidth="1"/>
@@ -1184,7 +1323,7 @@
       <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -1223,7 +1362,7 @@
       <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="1">
@@ -1256,7 +1395,7 @@
       <c r="E3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="1">
@@ -1289,7 +1428,7 @@
       <c r="E4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G4" s="1">
@@ -1311,10 +1450,10 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="12"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="13"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1332,19 +1471,19 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
       <c r="K6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1356,7 +1495,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -1369,7 +1508,7 @@
       <c r="E7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="1">
@@ -1389,7 +1528,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -1402,7 +1541,7 @@
       <c r="E8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="1">
@@ -1422,17 +1561,17 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
       <c r="K9" s="4" t="s">
         <v>15</v>
       </c>
@@ -1447,7 +1586,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -1460,7 +1599,7 @@
       <c r="E10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="1">
@@ -1471,7 +1610,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -1484,7 +1623,7 @@
       <c r="E11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G11" s="1">
@@ -1495,20 +1634,20 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="1">
         <v>8</v>
       </c>
@@ -1521,7 +1660,7 @@
       <c r="E13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="7" t="s">
         <v>112</v>
       </c>
       <c r="G13" s="1">
@@ -1535,7 +1674,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="1">
         <v>9</v>
       </c>
@@ -1548,7 +1687,7 @@
       <c r="E14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="1">
@@ -1559,7 +1698,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="1">
         <v>10</v>
       </c>
@@ -1572,7 +1711,7 @@
       <c r="E15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="1">
@@ -1583,20 +1722,20 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="1">
         <v>11</v>
       </c>
@@ -1609,7 +1748,7 @@
       <c r="E17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="7" t="s">
         <v>113</v>
       </c>
       <c r="G17" s="1">
@@ -1623,7 +1762,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="1">
         <v>12</v>
       </c>
@@ -1636,7 +1775,7 @@
       <c r="E18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="8" t="s">
         <v>67</v>
       </c>
       <c r="G18" s="1">
@@ -1647,7 +1786,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="1">
         <v>13</v>
       </c>
@@ -1660,7 +1799,7 @@
       <c r="E19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="8" t="s">
         <v>67</v>
       </c>
       <c r="G19" s="1">
@@ -1676,28 +1815,28 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="13"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="1">
         <v>14</v>
       </c>
@@ -1710,7 +1849,7 @@
       <c r="E22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="7" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="1">
@@ -1721,7 +1860,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="1">
         <v>15</v>
       </c>
@@ -1734,7 +1873,7 @@
       <c r="E23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G23" s="1">
@@ -1745,20 +1884,20 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="1">
         <v>16</v>
       </c>
@@ -1771,7 +1910,7 @@
       <c r="E25" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="7" t="s">
         <v>139</v>
       </c>
       <c r="G25" s="1">
@@ -1782,7 +1921,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="1">
         <v>17</v>
       </c>
@@ -1795,7 +1934,7 @@
       <c r="E26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G26" s="1">
@@ -1806,20 +1945,20 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="1">
         <v>18</v>
       </c>
@@ -1832,7 +1971,7 @@
       <c r="E28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G28" s="1">
@@ -1846,7 +1985,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="1">
         <v>19</v>
       </c>
@@ -1859,7 +1998,7 @@
       <c r="E29" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G29" s="1">
@@ -1870,7 +2009,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="1">
         <v>20</v>
       </c>
@@ -1883,7 +2022,7 @@
       <c r="E30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G30" s="1">
@@ -1894,20 +2033,20 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="1">
         <v>21</v>
       </c>
@@ -1920,7 +2059,7 @@
       <c r="E32" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="7" t="s">
         <v>158</v>
       </c>
       <c r="G32" s="1">
@@ -1934,7 +2073,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="1">
         <v>22</v>
       </c>
@@ -1947,7 +2086,7 @@
       <c r="E33" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="8" t="s">
         <v>159</v>
       </c>
       <c r="G33" s="1">
@@ -1958,7 +2097,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="1">
         <v>23</v>
       </c>
@@ -1971,7 +2110,7 @@
       <c r="E34" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="8" t="s">
         <v>159</v>
       </c>
       <c r="G34" s="1">
@@ -1987,28 +2126,28 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="13"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="1">
         <v>24</v>
       </c>
@@ -2021,7 +2160,7 @@
       <c r="E37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="7" t="s">
         <v>70</v>
       </c>
       <c r="G37" s="1">
@@ -2032,7 +2171,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="1">
         <v>25</v>
       </c>
@@ -2045,7 +2184,7 @@
       <c r="E38" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="7" t="s">
         <v>78</v>
       </c>
       <c r="G38" s="1">
@@ -2056,20 +2195,20 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
-      <c r="B39" s="7" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
     </row>
     <row r="40" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="1">
         <v>26</v>
       </c>
@@ -2082,7 +2221,7 @@
       <c r="E40" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="7" t="s">
         <v>81</v>
       </c>
       <c r="G40" s="1">
@@ -2093,7 +2232,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="1">
         <v>27</v>
       </c>
@@ -2106,7 +2245,7 @@
       <c r="E41" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G41" s="1">
@@ -2117,20 +2256,20 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
-      <c r="B42" s="7" t="s">
+      <c r="A42" s="18"/>
+      <c r="B42" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
     </row>
     <row r="43" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="1">
         <v>28</v>
       </c>
@@ -2143,7 +2282,7 @@
       <c r="E43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="7" t="s">
         <v>79</v>
       </c>
       <c r="G43" s="1">
@@ -2157,7 +2296,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="1">
         <v>29</v>
       </c>
@@ -2170,7 +2309,7 @@
       <c r="E44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="7" t="s">
         <v>80</v>
       </c>
       <c r="G44" s="1">
@@ -2181,7 +2320,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="1">
         <v>30</v>
       </c>
@@ -2194,7 +2333,7 @@
       <c r="E45" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="7" t="s">
         <v>80</v>
       </c>
       <c r="G45" s="1">
@@ -2205,20 +2344,20 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="7" t="s">
+      <c r="A46" s="18"/>
+      <c r="B46" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
     </row>
     <row r="47" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="1">
         <v>31</v>
       </c>
@@ -2231,7 +2370,7 @@
       <c r="E47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="7" t="s">
         <v>88</v>
       </c>
       <c r="G47" s="1">
@@ -2245,7 +2384,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="14"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="1">
         <v>32</v>
       </c>
@@ -2258,7 +2397,7 @@
       <c r="E48" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="8" t="s">
         <v>89</v>
       </c>
       <c r="G48" s="1">
@@ -2269,7 +2408,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="1">
         <v>33</v>
       </c>
@@ -2282,7 +2421,7 @@
       <c r="E49" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="8" t="s">
         <v>90</v>
       </c>
       <c r="G49" s="1">
@@ -2298,28 +2437,28 @@
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="13"/>
+      <c r="F50" s="10"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="16"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="1">
         <v>24</v>
       </c>
@@ -2332,7 +2471,7 @@
       <c r="E52" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="7" t="s">
         <v>95</v>
       </c>
       <c r="G52" s="1">
@@ -2343,7 +2482,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="16"/>
+      <c r="A53" s="20"/>
       <c r="B53" s="1">
         <v>25</v>
       </c>
@@ -2356,7 +2495,7 @@
       <c r="E53" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="7" t="s">
         <v>107</v>
       </c>
       <c r="G53" s="1">
@@ -2367,20 +2506,20 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="16"/>
-      <c r="B54" s="7" t="s">
+      <c r="A54" s="20"/>
+      <c r="B54" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
     </row>
     <row r="55" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A55" s="16"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="1">
         <v>26</v>
       </c>
@@ -2393,7 +2532,7 @@
       <c r="E55" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="7" t="s">
         <v>105</v>
       </c>
       <c r="G55" s="1">
@@ -2404,7 +2543,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A56" s="16"/>
+      <c r="A56" s="20"/>
       <c r="B56" s="1">
         <v>27</v>
       </c>
@@ -2417,7 +2556,7 @@
       <c r="E56" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="7" t="s">
         <v>110</v>
       </c>
       <c r="G56" s="1">
@@ -2428,20 +2567,20 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="16"/>
-      <c r="B57" s="7" t="s">
+      <c r="A57" s="20"/>
+      <c r="B57" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
     </row>
     <row r="58" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="16"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="1">
         <v>28</v>
       </c>
@@ -2454,7 +2593,7 @@
       <c r="E58" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="7" t="s">
         <v>108</v>
       </c>
       <c r="G58" s="1">
@@ -2468,7 +2607,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A59" s="16"/>
+      <c r="A59" s="20"/>
       <c r="B59" s="1">
         <v>29</v>
       </c>
@@ -2481,7 +2620,7 @@
       <c r="E59" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="7" t="s">
         <v>109</v>
       </c>
       <c r="G59" s="1">
@@ -2492,7 +2631,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A60" s="16"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="1">
         <v>30</v>
       </c>
@@ -2505,7 +2644,7 @@
       <c r="E60" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="7" t="s">
         <v>109</v>
       </c>
       <c r="G60" s="1">
@@ -2516,20 +2655,20 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="16"/>
-      <c r="B61" s="7" t="s">
+      <c r="A61" s="20"/>
+      <c r="B61" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
     </row>
     <row r="62" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A62" s="16"/>
+      <c r="A62" s="20"/>
       <c r="B62" s="1">
         <v>31</v>
       </c>
@@ -2542,7 +2681,7 @@
       <c r="E62" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F62" s="7" t="s">
         <v>124</v>
       </c>
       <c r="G62" s="1">
@@ -2556,7 +2695,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="16"/>
+      <c r="A63" s="20"/>
       <c r="B63" s="1">
         <v>32</v>
       </c>
@@ -2569,7 +2708,7 @@
       <c r="E63" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="F63" s="7" t="s">
         <v>123</v>
       </c>
       <c r="G63" s="1">
@@ -2580,7 +2719,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="16"/>
+      <c r="A64" s="20"/>
       <c r="B64" s="1">
         <v>33</v>
       </c>
@@ -2593,7 +2732,7 @@
       <c r="E64" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F64" s="10" t="s">
+      <c r="F64" s="7" t="s">
         <v>123</v>
       </c>
       <c r="G64" s="1">
@@ -2609,28 +2748,28 @@
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="13"/>
+      <c r="F65" s="10"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="19"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="1">
         <v>24</v>
       </c>
@@ -2643,7 +2782,7 @@
       <c r="E67" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F67" s="10" t="s">
+      <c r="F67" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G67" s="1">
@@ -2654,7 +2793,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="19"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="1">
         <v>25</v>
       </c>
@@ -2667,7 +2806,7 @@
       <c r="E68" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F68" s="10" t="s">
+      <c r="F68" s="7" t="s">
         <v>137</v>
       </c>
       <c r="G68" s="1">
@@ -2678,20 +2817,20 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="19"/>
-      <c r="B69" s="7" t="s">
+      <c r="A69" s="12"/>
+      <c r="B69" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
     </row>
     <row r="70" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A70" s="19"/>
+      <c r="A70" s="12"/>
       <c r="B70" s="1">
         <v>26</v>
       </c>
@@ -2704,7 +2843,7 @@
       <c r="E70" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F70" s="10" t="s">
+      <c r="F70" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G70" s="1">
@@ -2715,7 +2854,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A71" s="19"/>
+      <c r="A71" s="12"/>
       <c r="B71" s="1">
         <v>27</v>
       </c>
@@ -2728,7 +2867,7 @@
       <c r="E71" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F71" s="10" t="s">
+      <c r="F71" s="7" t="s">
         <v>135</v>
       </c>
       <c r="G71" s="1">
@@ -2739,20 +2878,20 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="19"/>
-      <c r="B72" s="7" t="s">
+      <c r="A72" s="12"/>
+      <c r="B72" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
     </row>
     <row r="73" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="19"/>
+      <c r="A73" s="12"/>
       <c r="B73" s="1">
         <v>28</v>
       </c>
@@ -2765,7 +2904,7 @@
       <c r="E73" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F73" s="10" t="s">
+      <c r="F73" s="7" t="s">
         <v>147</v>
       </c>
       <c r="G73" s="1">
@@ -2779,7 +2918,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="19"/>
+      <c r="A74" s="12"/>
       <c r="B74" s="1">
         <v>29</v>
       </c>
@@ -2792,7 +2931,7 @@
       <c r="E74" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F74" s="10" t="s">
+      <c r="F74" s="7" t="s">
         <v>146</v>
       </c>
       <c r="G74" s="1">
@@ -2803,7 +2942,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="19"/>
+      <c r="A75" s="12"/>
       <c r="B75" s="1">
         <v>30</v>
       </c>
@@ -2816,7 +2955,7 @@
       <c r="E75" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F75" s="10" t="s">
+      <c r="F75" s="7" t="s">
         <v>146</v>
       </c>
       <c r="G75" s="1">
@@ -2827,20 +2966,20 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="19"/>
-      <c r="B76" s="7" t="s">
+      <c r="A76" s="12"/>
+      <c r="B76" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
     </row>
     <row r="77" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A77" s="19"/>
+      <c r="A77" s="12"/>
       <c r="B77" s="1">
         <v>31</v>
       </c>
@@ -2853,7 +2992,7 @@
       <c r="E77" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="F77" s="7" t="s">
         <v>148</v>
       </c>
       <c r="G77" s="1">
@@ -2867,7 +3006,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="19"/>
+      <c r="A78" s="12"/>
       <c r="B78" s="1">
         <v>32</v>
       </c>
@@ -2880,7 +3019,7 @@
       <c r="E78" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F78" s="11" t="s">
+      <c r="F78" s="8" t="s">
         <v>149</v>
       </c>
       <c r="G78" s="1">
@@ -2891,7 +3030,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="19"/>
+      <c r="A79" s="12"/>
       <c r="B79" s="1">
         <v>33</v>
       </c>
@@ -2904,7 +3043,7 @@
       <c r="E79" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F79" s="11" t="s">
+      <c r="F79" s="8" t="s">
         <v>149</v>
       </c>
       <c r="G79" s="1">
@@ -2920,28 +3059,28 @@
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="13"/>
+      <c r="F80" s="10"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="20"/>
+      <c r="A82" s="15"/>
       <c r="B82" s="1">
         <v>24</v>
       </c>
@@ -2954,7 +3093,7 @@
       <c r="E82" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F82" s="10" t="s">
+      <c r="F82" s="7" t="s">
         <v>115</v>
       </c>
       <c r="G82" s="1">
@@ -2965,7 +3104,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="20"/>
+      <c r="A83" s="15"/>
       <c r="B83" s="1">
         <v>25</v>
       </c>
@@ -2978,7 +3117,7 @@
       <c r="E83" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="F83" s="7" t="s">
         <v>116</v>
       </c>
       <c r="G83" s="1">
@@ -2989,20 +3128,20 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="20"/>
-      <c r="B84" s="7" t="s">
+      <c r="A84" s="15"/>
+      <c r="B84" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="20"/>
+      <c r="A85" s="15"/>
       <c r="B85" s="1">
         <v>26</v>
       </c>
@@ -3015,7 +3154,7 @@
       <c r="E85" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F85" s="10" t="s">
+      <c r="F85" s="7" t="s">
         <v>132</v>
       </c>
       <c r="G85" s="1">
@@ -3026,7 +3165,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="20"/>
+      <c r="A86" s="15"/>
       <c r="B86" s="1">
         <v>27</v>
       </c>
@@ -3039,7 +3178,7 @@
       <c r="E86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F86" s="10" t="s">
+      <c r="F86" s="7" t="s">
         <v>134</v>
       </c>
       <c r="G86" s="1">
@@ -3050,20 +3189,20 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="20"/>
-      <c r="B87" s="7" t="s">
+      <c r="A87" s="15"/>
+      <c r="B87" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="20"/>
+      <c r="A88" s="15"/>
       <c r="B88" s="1">
         <v>28</v>
       </c>
@@ -3076,7 +3215,7 @@
       <c r="E88" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F88" s="10" t="s">
+      <c r="F88" s="7" t="s">
         <v>160</v>
       </c>
       <c r="G88" s="1">
@@ -3090,7 +3229,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="20"/>
+      <c r="A89" s="15"/>
       <c r="B89" s="1">
         <v>29</v>
       </c>
@@ -3103,7 +3242,7 @@
       <c r="E89" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F89" s="10" t="s">
+      <c r="F89" s="7" t="s">
         <v>161</v>
       </c>
       <c r="G89" s="1">
@@ -3114,7 +3253,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="20"/>
+      <c r="A90" s="15"/>
       <c r="B90" s="1">
         <v>30</v>
       </c>
@@ -3127,7 +3266,7 @@
       <c r="E90" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F90" s="10" t="s">
+      <c r="F90" s="7" t="s">
         <v>161</v>
       </c>
       <c r="G90" s="1">
@@ -3138,20 +3277,20 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="20"/>
-      <c r="B91" s="7" t="s">
+      <c r="A91" s="15"/>
+      <c r="B91" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="20"/>
+      <c r="A92" s="15"/>
       <c r="B92" s="1">
         <v>31</v>
       </c>
@@ -3164,7 +3303,7 @@
       <c r="E92" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F92" s="10" t="s">
+      <c r="F92" s="7" t="s">
         <v>165</v>
       </c>
       <c r="G92" s="1">
@@ -3178,7 +3317,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="20"/>
+      <c r="A93" s="15"/>
       <c r="B93" s="1">
         <v>32</v>
       </c>
@@ -3191,7 +3330,7 @@
       <c r="E93" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F93" s="10" t="s">
+      <c r="F93" s="7" t="s">
         <v>165</v>
       </c>
       <c r="G93" s="1">
@@ -3202,7 +3341,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="20"/>
+      <c r="A94" s="15"/>
       <c r="B94" s="1">
         <v>33</v>
       </c>
@@ -3215,7 +3354,7 @@
       <c r="E94" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F94" s="10" t="s">
+      <c r="F94" s="7" t="s">
         <v>165</v>
       </c>
       <c r="G94" s="1">
@@ -3227,16 +3366,10 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A66:A79"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="B69:I69"/>
-    <mergeCell ref="B72:I72"/>
-    <mergeCell ref="B76:I76"/>
-    <mergeCell ref="A81:A94"/>
-    <mergeCell ref="B81:I81"/>
-    <mergeCell ref="B84:I84"/>
-    <mergeCell ref="B87:I87"/>
-    <mergeCell ref="B91:I91"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B16:I16"/>
     <mergeCell ref="B57:I57"/>
     <mergeCell ref="B61:I61"/>
     <mergeCell ref="A6:A19"/>
@@ -3253,10 +3386,16 @@
     <mergeCell ref="B24:I24"/>
     <mergeCell ref="B27:I27"/>
     <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="A81:A94"/>
+    <mergeCell ref="B81:I81"/>
+    <mergeCell ref="B84:I84"/>
+    <mergeCell ref="B87:I87"/>
+    <mergeCell ref="B91:I91"/>
+    <mergeCell ref="A66:A79"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B69:I69"/>
+    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="B76:I76"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기획서/모래시계 시스템.xlsx
+++ b/기획서/모래시계 시스템.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seongjae Yoon\Desktop\MonsterHunterSoldier\Kronos2\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤성재\Desktop\Kronos\Kronos2\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C12213-B7D0-4181-9CE3-F565A0A140C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E449EDDF-AFA4-48B2-9C9B-C1362836E374}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22995" yWindow="0" windowWidth="22995" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28965" yWindow="45" windowWidth="21840" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="2" r:id="rId1"/>
@@ -890,19 +890,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -920,14 +920,14 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1211,7 +1211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB4FEB7-8CEB-42BB-9BB3-93B4731790BB}">
   <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1219,33 +1219,33 @@
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="80.125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="21"/>
+    <col min="3" max="3" width="8.75" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       <c r="A6" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="12" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1292,9 +1292,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39:I39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1474,16 +1474,16 @@
       <c r="A6" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
       <c r="K6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1562,16 +1562,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
       <c r="K9" s="4" t="s">
         <v>15</v>
       </c>
@@ -1635,16 +1635,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
@@ -1723,16 +1723,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
@@ -1824,16 +1824,16 @@
       <c r="A21" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
@@ -1885,16 +1885,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
@@ -1946,16 +1946,16 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
@@ -2034,16 +2034,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
@@ -2135,16 +2135,16 @@
       <c r="A36" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
@@ -2196,16 +2196,16 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
     </row>
     <row r="40" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="18"/>
@@ -2257,16 +2257,16 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="18"/>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
     </row>
     <row r="43" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="18"/>
@@ -2345,16 +2345,16 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="18"/>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
     </row>
     <row r="47" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
@@ -2446,21 +2446,21 @@
       <c r="A51" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
       <c r="B52" s="1">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>96</v>
@@ -2484,7 +2484,7 @@
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="1">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>96</v>
@@ -2507,21 +2507,21 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
     </row>
     <row r="55" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="1">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>96</v>
@@ -2545,7 +2545,7 @@
     <row r="56" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A56" s="20"/>
       <c r="B56" s="1">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>96</v>
@@ -2568,21 +2568,21 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
     </row>
     <row r="58" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A58" s="20"/>
       <c r="B58" s="1">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>104</v>
@@ -2609,7 +2609,7 @@
     <row r="59" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
       <c r="B59" s="1">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>104</v>
@@ -2633,7 +2633,7 @@
     <row r="60" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" s="20"/>
       <c r="B60" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>104</v>
@@ -2656,21 +2656,21 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="20"/>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
     </row>
     <row r="62" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A62" s="20"/>
       <c r="B62" s="1">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>125</v>
@@ -2697,7 +2697,7 @@
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="20"/>
       <c r="B63" s="1">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>125</v>
@@ -2721,7 +2721,7 @@
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="1">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>125</v>
@@ -2754,24 +2754,24 @@
       <c r="I65" s="3"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="12"/>
+      <c r="A67" s="23"/>
       <c r="B67" s="1">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>36</v>
@@ -2793,9 +2793,9 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="12"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="1">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>36</v>
@@ -2817,22 +2817,22 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="12"/>
-      <c r="B69" s="13" t="s">
+      <c r="A69" s="23"/>
+      <c r="B69" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
     </row>
     <row r="70" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A70" s="12"/>
+      <c r="A70" s="23"/>
       <c r="B70" s="1">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>36</v>
@@ -2854,9 +2854,9 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A71" s="12"/>
+      <c r="A71" s="23"/>
       <c r="B71" s="1">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>36</v>
@@ -2878,22 +2878,22 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="12"/>
-      <c r="B72" s="13" t="s">
+      <c r="A72" s="23"/>
+      <c r="B72" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
     </row>
     <row r="73" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="12"/>
+      <c r="A73" s="23"/>
       <c r="B73" s="1">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>141</v>
@@ -2918,9 +2918,9 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="12"/>
+      <c r="A74" s="23"/>
       <c r="B74" s="1">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>141</v>
@@ -2942,9 +2942,9 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="12"/>
+      <c r="A75" s="23"/>
       <c r="B75" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>141</v>
@@ -2966,22 +2966,22 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="12"/>
-      <c r="B76" s="13" t="s">
+      <c r="A76" s="23"/>
+      <c r="B76" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
     </row>
     <row r="77" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A77" s="12"/>
+      <c r="A77" s="23"/>
       <c r="B77" s="1">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>150</v>
@@ -3006,9 +3006,9 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="12"/>
+      <c r="A78" s="23"/>
       <c r="B78" s="1">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>150</v>
@@ -3030,9 +3030,9 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="12"/>
+      <c r="A79" s="23"/>
       <c r="B79" s="1">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>150</v>
@@ -3065,24 +3065,24 @@
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="15"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="1">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>120</v>
@@ -3104,9 +3104,9 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="15"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="1">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>119</v>
@@ -3128,22 +3128,22 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="15"/>
-      <c r="B84" s="13" t="s">
+      <c r="A84" s="21"/>
+      <c r="B84" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="15"/>
+      <c r="A85" s="21"/>
       <c r="B85" s="1">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>119</v>
@@ -3165,9 +3165,9 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="15"/>
+      <c r="A86" s="21"/>
       <c r="B86" s="1">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>119</v>
@@ -3189,22 +3189,22 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="15"/>
-      <c r="B87" s="13" t="s">
+      <c r="A87" s="21"/>
+      <c r="B87" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="15"/>
+      <c r="A88" s="21"/>
       <c r="B88" s="1">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>142</v>
@@ -3229,9 +3229,9 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="15"/>
+      <c r="A89" s="21"/>
       <c r="B89" s="1">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>142</v>
@@ -3253,9 +3253,9 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="15"/>
+      <c r="A90" s="21"/>
       <c r="B90" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>142</v>
@@ -3277,22 +3277,22 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="15"/>
-      <c r="B91" s="13" t="s">
+      <c r="A91" s="21"/>
+      <c r="B91" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="15"/>
+      <c r="A92" s="21"/>
       <c r="B92" s="1">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>166</v>
@@ -3317,9 +3317,9 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="15"/>
+      <c r="A93" s="21"/>
       <c r="B93" s="1">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>166</v>
@@ -3341,9 +3341,9 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="15"/>
+      <c r="A94" s="21"/>
       <c r="B94" s="1">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>166</v>
@@ -3366,11 +3366,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="A66:A79"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B69:I69"/>
+    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="A81:A94"/>
+    <mergeCell ref="B81:I81"/>
+    <mergeCell ref="B84:I84"/>
+    <mergeCell ref="B87:I87"/>
+    <mergeCell ref="B91:I91"/>
     <mergeCell ref="B61:I61"/>
     <mergeCell ref="A6:A19"/>
     <mergeCell ref="A21:A34"/>
@@ -3386,18 +3391,14 @@
     <mergeCell ref="B24:I24"/>
     <mergeCell ref="B27:I27"/>
     <mergeCell ref="B31:I31"/>
-    <mergeCell ref="A81:A94"/>
-    <mergeCell ref="B81:I81"/>
-    <mergeCell ref="B84:I84"/>
-    <mergeCell ref="B87:I87"/>
-    <mergeCell ref="B91:I91"/>
-    <mergeCell ref="A66:A79"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="B69:I69"/>
-    <mergeCell ref="B72:I72"/>
-    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B57:I57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>